--- a/biology/Zoologie/Alouette_gulgule/Alouette_gulgule.xlsx
+++ b/biology/Zoologie/Alouette_gulgule/Alouette_gulgule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alauda gulgula
 L'Alouette gulgule (Alauda gulgula) est une espèce d'oiseaux passereaux de la famille des Alaudidae. Cet oiseau est présent en Inde et en Asie du Sud-Est. L'Alouette gulgule est un oiseau insectivore et granivore qui vit dans les prairies.
@@ -512,7 +524,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Alauda gulgula [gulgula, australis, herberti or dharmakumarsinhjii]: de l'est de l'Inde jusqu'au Sri Lanka et à l'Indochine.
 Alauda gulgula inconspicua: de la Transcaspienne jusqu'au Turkménistan, est de l'Iran, Afghanistan et nord-ouest de l'Inde.
